--- a/EXCEL Output/Assignment6.xlsx
+++ b/EXCEL Output/Assignment6.xlsx
@@ -48,8 +48,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -127,41 +133,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" headerRowCount="1">
-  <autoFilter ref="A1:C9"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D9" headerRowCount="1">
+  <autoFilter ref="A1:D9"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Measure Name"/>
     <tableColumn id="2" name="Measure Expression"/>
-    <tableColumn id="3" name="Measure Description"/>
+    <tableColumn id="3" name="Measure Data Type"/>
+    <tableColumn id="4" name="Measure Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:D2" headerRowCount="1">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F2" headerRowCount="1">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Relationships" displayName="Relationships" ref="A1:G1" headerRowCount="1">
-  <autoFilter ref="A1:G1"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="From Table"/>
-    <tableColumn id="2" name="From Column"/>
-    <tableColumn id="3" name="To Table"/>
-    <tableColumn id="4" name="To Column"/>
-    <tableColumn id="5" name="State"/>
-    <tableColumn id="6" name="Direction"/>
-    <tableColumn id="7" name="Cardinality"/>
+    <tableColumn id="5" name="Table Query"/>
+    <tableColumn id="6" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,164 +449,215 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Measure Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Measure Expression</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Measure Data Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Measure Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>SalesMTD</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>TOTALMTD(sum(FinancialData[ Sales]), DATESMTD('FinancialData'[Date]))</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>This calculation is used to sum the total amount of sales for the current month to date. The TOTALMTD function takes the sum of the sales from a FinancialData table and uses the DATESMTD function to determine the date range from the date values in the FinancialData table, which is then used to</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>This calculation sums the total sales for the current month, up to the current date. It does this by summing the Sales column from a Financial Data table, and then applying the DatesMTD filter to only include sales that have happened this month.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>SalesQTD</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>TOTALQTD(sum(FinancialData[ Sales]), DATESQTD('FinancialData'[Date]))</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>This calculation provides the sum of the sales in a given quarter, up to the date specified in the expression's input. TOTALQTD() first finds the quarter that the provided date falls into, then summs the sales values in FinancialData table during this quarter.</t>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>This calculation sums the total sales within a given quarter, relative to a given date. It looks at the sales data in FinancialData and finds the total sales within a quarter of the date specified in the same table.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>SalesYTD</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>TOTALYTD(sum(FinancialData[ Sales]), DATESYTD('FinancialData'[Date]))</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>TOTALYTD(sum(FinancialData[ Sales]), DATESYTD('FinancialData'[Date])) is a calculation that takes the total sales starting from the beginning of the current year up to the current date and sums them up. This gives an accuracte year-to-date (</t>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>This calculation returns the total sales from the beginning of the calendar year until the current date of the FinancialData table. It does this by summing up values from the Sales column for all dates up to the current date in the FinancialData table.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Previous Month Sales MTD</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>CALCULATE(SUM(FinancialData[ Sales]), PARALLELPERIOD(DATESMTD(FinancialData[Date].[Date]),-1,MONTH))</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>This calculation sums up the Sales for the current month compared to the same month of the previous year. It is useful for comparing sales performance as this allows us to take a look at sales trends over time.</t>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>This calculation provides a sum of the sales in FinancialData for the same month one year ago. It uses the function ParallelPeriod to determine the month one year ago and then adds up all the sales in FinancialData for that month.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Previous Quarter Sales QTD</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>CALCULATE(SUM(FinancialData[ Sales]),DATESYTD(PARALLELPERIOD(FinancialData[Date].[Date],-1,QUARTER)))</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>This calculation calculates the total sales for the year-to-date of the previous quarter. The PARALLELPERIOD function is used to get the start of the previous quarter, and DATESYTD is used to calculate the total sales for the entire duration of this previous quarter up until the end</t>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>This calculation sums up the total sales from the previous quarter until today in the current year. This allows a business to compare year-over-year sales performance.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Month(%)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>([Previous Month Sales MTD] - [SalesMTD])/ [Previous Month Sales MTD]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>This calculation is measuring the month-over-month growth rate for sales. It takes the sales for the current month (SalesMTD) and subtracts the sales from the previous month (Previous Month Sales MTD), and then divides that result by the previous month's sales. This calculation gives us a percentage</t>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>This calculation compares the total sales from the current month to the same period of the prior month on a percentage basis. It gives you the percentage change of sales month over month.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Previous Year Current Month Sales</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>CALCULATE (SUM ( FinancialData[ Sales] ),DATESYTD ( SAMEPERIODLASTYEAR ( FinancialData[Date].[Date] ) ))</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>This calculation is used to compare the current year-to-date sales to the previous year year-to-date sales. It uses a date filter to compare the current dates to the same period dates from the previous year. The resulting value is the total year-to-date sum of sales from the current</t>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>This calculation is calculating the total sales for the same period last year. It is doing this by looking for the date from the same period last year, and then summing the total sales from that date onward.</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>First Half Year Sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>CALCULATE (SUM ( FinancialData[ Sales] ),DATESBETWEEN ( FinancialData[Date], DATE ( 2014, 1, 1 ), DATE ( 2014, 6, 31 ) ))</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>This calculation is finding the total sales amount from the FinancialData table between January 1, 2014 and June 31, 2014. The CALCULATE function is used to modify the existing context of the table and the SUM function is used to total the sales amount.</t>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>This calculation is adding up the totals of all sales from the FinancialData table from between the dates of January 1, 2014 and June 31, 2014.</t>
         </is>
       </c>
     </row>
@@ -631,53 +675,87 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Table No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Table Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Table Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Table Source</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Table Query</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>FinancialData</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Downloads\Problem Set 6\Financial Data.xlsx"</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(FinancialData_Table,{{"Segment", type text}, {"Country", type text}, {"Product", type text}, {"Discount Band", type text}, {"Units Sold", type number}, {"Manufacturing Price", Int64.Type}, {"Sale Price", Int64.Type}, {"Gross Sales", type number}, {"Discounts", type number}, {" Sales", type number}, {"COGS", type number}, {"Profit", type number}, {"Date", type date}}),
+    #"Renamed Columns" = Table.RenameColumns(#"Changed Type",{{"COGS", "Cost"}}),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Profit", Currency.Type}, {"Cost", Currency.Type}, {" Sales", Currency.Type}, {"Gross Sales", Currency.Type}, {"Discounts", Currency.Type}, {"Date", type date}, {"Units Sold", Int64.Type}}),
+    #"Added Custom" = Table.AddColumn(#"Changed Type1", "Total Cost", each [Cost] + [Discounts]),
+    #"Changed Type2" = Table.TransformColumnTypes(#"Added Custom",{{"Total Cost", Currency.Type}})
+in
+    #"Changed Type2"</t>
         </is>
       </c>
     </row>
@@ -690,60 +768,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="46.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>From Table</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>From Column</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>To Table</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>To Column</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Cardinality</t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>No relationships present in this file</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/EXCEL Output/Assignment6.xlsx
+++ b/EXCEL Output/Assignment6.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation sums the total sales for the current month, up to the current date. It does this by summing the Sales column from a Financial Data table, and then applying the DatesMTD filter to only include sales that have happened this month.</t>
+          <t>This calculation gives the total sales for the current month up to the current day in the FinancialData table. It is accomplished by summing up all the sales for the current month and filtering it based on the dates within the month.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation sums the total sales within a given quarter, relative to a given date. It looks at the sales data in FinancialData and finds the total sales within a quarter of the date specified in the same table.</t>
+          <t>This calculation is used to sum up the total sales made in the current quarter. It adds up all sales in the FinancialData table from the beginning of the current quarter to the current date, using DATESQTD() to create range of dates for the current quarter.</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation returns the total sales from the beginning of the calendar year until the current date of the FinancialData table. It does this by summing up values from the Sales column for all dates up to the current date in the FinancialData table.</t>
+          <t>This calculation takes the total year to date sales for a certain date. It does this by summing up all the sales for the current year recorded in the FinancialData table up until the given date.</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation provides a sum of the sales in FinancialData for the same month one year ago. It uses the function ParallelPeriod to determine the month one year ago and then adds up all the sales in FinancialData for that month.</t>
+          <t>This calculation is calculating the total sales from the previous month. Specifically, it is summing up all the sales transactions in the FinancialData table and filtering it based on the previous month's date, which is determined by the PARALLELPERIOD function and the DATESMTD function.</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>This calculation sums up the total sales from the previous quarter until today in the current year. This allows a business to compare year-over-year sales performance.</t>
+          <t>The calculation calculates the total sales from the start of the current quarter to the present date. It does this by referencing the date from the FinancialData table, then subtracting one quarter to get a start date for the time period. It then sums the sales over this time period.</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>This calculation compares the total sales from the current month to the same period of the prior month on a percentage basis. It gives you the percentage change of sales month over month.</t>
+          <t>This calculation is used to measure the month-on-month change in sales. It compares the current month's sales with sales from the same month in the previous year, and expresses the difference as a percentage of the previous month's sales. This is a useful tool for tracking the trend of sales over time.</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>This calculation is calculating the total sales for the same period last year. It is doing this by looking for the date from the same period last year, and then summing the total sales from that date onward.</t>
+          <t>This calculation is taking the sales figures from the current year to date, and comparing those sales to those of the same period the previous year. It is summing the sales figures of the two periods and providing a comparison between the two.</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>This calculation is adding up the totals of all sales from the FinancialData table from between the dates of January 1, 2014 and June 31, 2014.</t>
+          <t>This calculation sums up the total sales from the FinancialData table between January 1, 2014 and June 31, 2014. It takes into account only the Sales numbers from the FinancialData table within this period.</t>
         </is>
       </c>
     </row>
@@ -749,13 +749,12 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(FinancialData_Table,{{"Segment", type text}, {"Country", type text}, {"Product", type text}, {"Discount Band", type text}, {"Units Sold", type number}, {"Manufacturing Price", Int64.Type}, {"Sale Price", Int64.Type}, {"Gross Sales", type number}, {"Discounts", type number}, {" Sales", type number}, {"COGS", type number}, {"Profit", type number}, {"Date", type date}}),
-    #"Renamed Columns" = Table.RenameColumns(#"Changed Type",{{"COGS", "Cost"}}),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Profit", Currency.Type}, {"Cost", Currency.Type}, {" Sales", Currency.Type}, {"Gross Sales", Currency.Type}, {"Discounts", Currency.Type}, {"Date", type date}, {"Units Sold", Int64.Type}}),
-    #"Added Custom" = Table.AddColumn(#"Changed Type1", "Total Cost", each [Cost] + [Discounts]),
-    #"Changed Type2" = Table.TransformColumnTypes(#"Added Custom",{{"Total Cost", Currency.Type}})
-in
-    #"Changed Type2"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(FinancialData_Table,{{"Segment", type text}, {"Country", type text}, {"Product", type text}, {"Discount Band", type text}, {"Units Sold", type number}, {"Manufacturing Price", Int64.Type}, {"Sale Price", Int64.Type}, {"Gross Sales", type number}, {"Discounts", type number}, {" Sales", type number}, {"COGS", type number}, {"Profit", type number}, {"Date", type date}}),
+2. #"Renamed Columns" = Table.RenameColumns(#"Changed Type",{{"COGS", "Cost"}}),
+3. #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Profit", Currency.Type}, {"Cost", Currency.Type}, {" Sales", Currency.Type}, {"Gross Sales", Currency.Type}, {"Discounts", Currency.Type}, {"Date", type date}, {"Units Sold", Int64.Type}}),
+4. #"Added Custom" = Table.AddColumn(#"Changed Type1", "Total Cost", each [Cost] + [Discounts]),
+5. #"Changed Type2" = Table.TransformColumnTypes(#"Added Custom",{{"Total Cost", Currency.Type}})
+</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment6.xlsx
+++ b/EXCEL Output/Assignment6.xlsx
@@ -146,15 +146,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F2" headerRowCount="1">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,7 +504,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation gives the total sales for the current month up to the current day in the FinancialData table. It is accomplished by summing up all the sales for the current month and filtering it based on the dates within the month.</t>
+          <t>TOTALMTD(sum(FinancialData[Sales]), DATESMTD('FinancialData'[Date])) is a calculation used to return the total sales for a given month-to-date period. DATESMTD() is used to get the start date of the current month, for example</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to sum up the total sales made in the current quarter. It adds up all sales in the FinancialData table from the beginning of the current quarter to the current date, using DATESQTD() to create range of dates for the current quarter.</t>
+          <t>This calculation provides the total sales from the current quarter compared to the same period in a prior year. It sums the sales from the FinancialData table for the current quarter and then compares it to the same period in a prior year.</t>
         </is>
       </c>
     </row>
@@ -547,7 +548,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation takes the total year to date sales for a certain date. It does this by summing up all the sales for the current year recorded in the FinancialData table up until the given date.</t>
+          <t>This calculation is used to calculate the total sales year to date (YTD), up to the current date in the FinancialData table. It adds the sales of all previous dates within the current year to the total of sales in the latest date to arrive at the total sales year to date.</t>
         </is>
       </c>
     </row>
@@ -569,7 +570,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation is calculating the total sales from the previous month. Specifically, it is summing up all the sales transactions in the FinancialData table and filtering it based on the previous month's date, which is determined by the PARALLELPERIOD function and the DATESMTD function.</t>
+          <t>This calculation is summing the sales data for the current month compared to the same month of the previous year. The function has first uses PARALLELPERIOD to set the date of a month before the current month, then SUMs the sales for that same month for a year ago to the present</t>
         </is>
       </c>
     </row>
@@ -591,7 +592,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>The calculation calculates the total sales from the start of the current quarter to the present date. It does this by referencing the date from the FinancialData table, then subtracting one quarter to get a start date for the time period. It then sums the sales over this time period.</t>
+          <t>This calculation is finding the total sales for the current quarter compared to the same quarter in the preceding year. The calculation uses the DATESYTD and PARALLELPERIOD functions to compare the year-to-date totals of two different quarters. This calculation results in the total sales for the current</t>
         </is>
       </c>
     </row>
@@ -613,7 +614,7 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to measure the month-on-month change in sales. It compares the current month's sales with sales from the same month in the previous year, and expresses the difference as a percentage of the previous month's sales. This is a useful tool for tracking the trend of sales over time.</t>
+          <t>This calculation is used to compare the current month's sales with those of the previous month. It tells us the percentage change in sales from last month to this month.</t>
         </is>
       </c>
     </row>
@@ -635,7 +636,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>This calculation is taking the sales figures from the current year to date, and comparing those sales to those of the same period the previous year. It is summing the sales figures of the two periods and providing a comparison between the two.</t>
+          <t>This calculation is summing the total sales from the same period last year. The FinancialData[Sales] column will be summed over the same period of last year. The DATESYTD function is used to compare sales performance in the year-to-date period, allowing for a comparison of current year sales</t>
         </is>
       </c>
     </row>
@@ -657,7 +658,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>This calculation sums up the total sales from the FinancialData table between January 1, 2014 and June 31, 2014. It takes into account only the Sales numbers from the FinancialData table within this period.</t>
+          <t>This calculation will sum up all sales from a financial dataset for the period between January 1, 2014 and June 31, 2014. It can be used to help figure out the total sales for a certain period of time.</t>
         </is>
       </c>
     </row>
@@ -675,7 +676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,10 +686,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -714,10 +716,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -744,10 +751,15 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>FinancialData_Table</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(FinancialData_Table,{{"Segment", type text}, {"Country", type text}, {"Product", type text}, {"Discount Band", type text}, {"Units Sold", type number}, {"Manufacturing Price", Int64.Type}, {"Sale Price", Int64.Type}, {"Gross Sales", type number}, {"Discounts", type number}, {" Sales", type number}, {"COGS", type number}, {"Profit", type number}, {"Date", type date}}),
 2. #"Renamed Columns" = Table.RenameColumns(#"Changed Type",{{"COGS", "Cost"}}),

--- a/EXCEL Output/Assignment6.xlsx
+++ b/EXCEL Output/Assignment6.xlsx
@@ -146,9 +146,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:H2" headerRowCount="1">
+  <autoFilter ref="A1:H2"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -156,6 +156,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,7 +505,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>TOTALMTD(sum(FinancialData[Sales]), DATESMTD('FinancialData'[Date])) is a calculation used to return the total sales for a given month-to-date period. DATESMTD() is used to get the start date of the current month, for example</t>
+          <t>This calculation provides the total sales for the current month to date (MTD) using the "FinancialData" table. It sums all the sales within the table, and then filters out any results that had a date outside the current month. The "DATESMTD" function then returns the total sales for</t>
         </is>
       </c>
     </row>
@@ -526,7 +527,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation provides the total sales from the current quarter compared to the same period in a prior year. It sums the sales from the FinancialData table for the current quarter and then compares it to the same period in a prior year.</t>
+          <t>This calculation is summing up the total sales from the FinancialData table within the current quarter. The DATESQTD function is used to identify the dates (from the FinancialData table) that are within the current quarter.</t>
         </is>
       </c>
     </row>
@@ -548,7 +549,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to calculate the total sales year to date (YTD), up to the current date in the FinancialData table. It adds the sales of all previous dates within the current year to the total of sales in the latest date to arrive at the total sales year to date.</t>
+          <t>This calculation gives the total sales year-to-date, calculated from the current day until the start of the current year, from a given data set or table. This calculation sums all of the sales up from the data set within that time frame and takes into account any changes or editing of sales data that has</t>
         </is>
       </c>
     </row>
@@ -570,7 +571,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation is summing the sales data for the current month compared to the same month of the previous year. The function has first uses PARALLELPERIOD to set the date of a month before the current month, then SUMs the sales for that same month for a year ago to the present</t>
+          <t>This calculation is calculating the total sales for last month. It does so by using the PARALLELPERIOD function to look at the same month one year prior from the current month (DATESMTD(FinancialData[Date].[Date]) within the current context, and then sums all sales</t>
         </is>
       </c>
     </row>
@@ -592,7 +593,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>This calculation is finding the total sales for the current quarter compared to the same quarter in the preceding year. The calculation uses the DATESYTD and PARALLELPERIOD functions to compare the year-to-date totals of two different quarters. This calculation results in the total sales for the current</t>
+          <t>This calculation sums up the sales for the current year to date (YTD) compared to the same quarter of the previous year. It does this by making use of the DATESYTD and PARALLELPERIOD DAX functions. The result is a comparison between the current and previous year's</t>
         </is>
       </c>
     </row>
@@ -614,7 +615,7 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to compare the current month's sales with those of the previous month. It tells us the percentage change in sales from last month to this month.</t>
+          <t>This calculation is used to compare the current month's sales MTD (Month-to-Date) to the previous month's sales MTD. It is expressed as a percentage difference between the two. This can help businesses to analyze the sales performance on a month-by-month basis and make decisions accordingly.</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>This calculation is summing the total sales from the same period last year. The FinancialData[Sales] column will be summed over the same period of last year. The DATESYTD function is used to compare sales performance in the year-to-date period, allowing for a comparison of current year sales</t>
+          <t>This calculation is used to find the total amount of sales for the same time period of the previous year. It does this by summing the sales from FinancialData for the same period that it was last year.</t>
         </is>
       </c>
     </row>
@@ -658,7 +659,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>This calculation will sum up all sales from a financial dataset for the period between January 1, 2014 and June 31, 2014. It can be used to help figure out the total sales for a certain period of time.</t>
+          <t>This calculation adds up the Sales figures for a specific time period of 2014, which is in this case January 1 to June 30. This allows us to get an overall total Sales figure for this specific period.</t>
         </is>
       </c>
     </row>
@@ -676,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,6 +692,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -727,6 +729,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Modification</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
         </is>
       </c>
     </row>
@@ -767,6 +774,11 @@
 4. #"Added Custom" = Table.AddColumn(#"Changed Type1", "Total Cost", each [Cost] + [Discounts]),
 5. #"Changed Type2" = Table.TransformColumnTypes(#"Added Custom",{{"Total Cost", Currency.Type}})
 </t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>This code is organizing information to appear in a table. The information is from a source of financial data. It is being organized so that each piece of data can be identified correctly. Information such as product name, country, discount band, and date is being changed from text to specific types such as text, number, or date. Then the columns are being renamed and two new columns are being added. One of the new columns is for the total cost. Finally, the types of the columns are being changed again to get them all to a currency type.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment6.xlsx
+++ b/EXCEL Output/Assignment6.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation provides the total sales for the current month to date (MTD) using the "FinancialData" table. It sums all the sales within the table, and then filters out any results that had a date outside the current month. The "DATESMTD" function then returns the total sales for</t>
+          <t>This calculation totals up all the sales figures for the current month, using the DATE</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation is summing up the total sales from the FinancialData table within the current quarter. The DATESQTD function is used to identify the dates (from the FinancialData table) that are within the current quarter.</t>
+          <t>This calculation produces the total sum of sales values for this quarter (QTD) by summing the sales values from the FinancialData table for dates that fall within the current quarter. It uses the TOTALQTD and DATESQTD functions to do this.</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation gives the total sales year-to-date, calculated from the current day until the start of the current year, from a given data set or table. This calculation sums all of the sales up from the data set within that time frame and takes into account any changes or editing of sales data that has</t>
+          <t>This calculation returns the Total Year-To-Date (YTD) Sales from the FinancialData table, up to the current date. Specifically, it takes the total Sales (sum) from FinancialData, and then compares that to the same date range as the current date (DATESYTD). This will</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation is calculating the total sales for last month. It does so by using the PARALLELPERIOD function to look at the same month one year prior from the current month (DATESMTD(FinancialData[Date].[Date]) within the current context, and then sums all sales</t>
+          <t>This calculation will sum up all of the sales from the previous month compared to the current month-to-date. This will provide a reference point for year over year progress and help understand the reporting period performance.</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>This calculation sums up the sales for the current year to date (YTD) compared to the same quarter of the previous year. It does this by making use of the DATESYTD and PARALLELPERIOD DAX functions. The result is a comparison between the current and previous year's</t>
+          <t>This calculation is summing up the total sales from the current year (YTD) in comparison to the preceding quarter. DATESYTD looks at the current year's dates up to the current day and PARALLELPERIOD is using that current day to look one quarter back. The result is</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to compare the current month's sales MTD (Month-to-Date) to the previous month's sales MTD. It is expressed as a percentage difference between the two. This can help businesses to analyze the sales performance on a month-by-month basis and make decisions accordingly.</t>
+          <t>This calculation is finding the percent change in Sales MTD between this month and the previous month. It does so by taking the difference between the current month's MTD Sales amount and the previous month's MTD Sales amount, and then dividing that result by the previous month's MTD Sales amount.</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to find the total amount of sales for the same time period of the previous year. It does this by summing the sales from FinancialData for the same period that it was last year.</t>
+          <t>This calculation is finding the total sales of the current year up until today's date, compared to the same period last year. This is helpful if you want to compare sales performance across multiple years.</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>This calculation adds up the Sales figures for a specific time period of 2014, which is in this case January 1 to June 30. This allows us to get an overall total Sales figure for this specific period.</t>
+          <t>This calculation computes the total sales from the FinancialData table between the dates of January 1st, 2014 and June 31st, 2014. This calculation uses the CALCULATE, SUM, and DATESBETWEEN DAX functions.</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This code is organizing information to appear in a table. The information is from a source of financial data. It is being organized so that each piece of data can be identified correctly. Information such as product name, country, discount band, and date is being changed from text to specific types such as text, number, or date. Then the columns are being renamed and two new columns are being added. One of the new columns is for the total cost. Finally, the types of the columns are being changed again to get them all to a currency type.</t>
+          <t>This line of code is changing the format, type, and name of the columns in a table of financial data. For example, the column labeled 'COGS' is being renamed to 'Cost' and the type 'Currency' is being added to the column for 'Profit'. The 'Discounts' and 'Cost' columns are being added together to create an additional column named 'Total Cost' that is also of type 'Currency'. In the end, the table will have changed to the result of '#"Changed Type2"'.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment6.xlsx
+++ b/EXCEL Output/Assignment6.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation totals up all the sales figures for the current month, using the DATE</t>
+          <t>This calculation takes the total sales from FinancialData and then totals the sales amounts of the records whose Date fields are within the current month. This result gives the total sales this month.</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation produces the total sum of sales values for this quarter (QTD) by summing the sales values from the FinancialData table for dates that fall within the current quarter. It uses the TOTALQTD and DATESQTD functions to do this.</t>
+          <t>This calculation is used to determine the total sales for the current Quarter To Date (QTD). It takes the sum of the Sales column from a table called FinancialData and uses the DATESQTD function to filter on the Date column from the same table, returning only the records from the current quarter.</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation returns the Total Year-To-Date (YTD) Sales from the FinancialData table, up to the current date. Specifically, it takes the total Sales (sum) from FinancialData, and then compares that to the same date range as the current date (DATESYTD). This will</t>
+          <t>This calculation is used to calculate the total year-to-date sales from a given dataset containing sale amounts as well as dates associated with each sale. This calculation will sum all sales up until the current date, allowing for a quick and easy way of easily managing and understanding sales performance for the current year.</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation will sum up all of the sales from the previous month compared to the current month-to-date. This will provide a reference point for year over year progress and help understand the reporting period performance.</t>
+          <t>This calculation sums the sales from the current month in the FinancialData table and subtracts the sales from the same month in the previous year. This can be useful to compare performance from one month and year to the next.</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>This calculation is summing up the total sales from the current year (YTD) in comparison to the preceding quarter. DATESYTD looks at the current year's dates up to the current day and PARALLELPERIOD is using that current day to look one quarter back. The result is</t>
+          <t>This calculation is the sum of all Sales for the current year-to-date (YTD), excluding the previous quarter. It is used to measure current Sales against a comparable (quarterly) past period.</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>This calculation is finding the percent change in Sales MTD between this month and the previous month. It does so by taking the difference between the current month's MTD Sales amount and the previous month's MTD Sales amount, and then dividing that result by the previous month's MTD Sales amount.</t>
+          <t>This calculation compares the current month's sales MTD to the previous month's sales MTD to determine the percentage change month-over-month. This is a useful metric for understanding how much sales have increased or decreased compared to the same period in the previous month.</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>This calculation is finding the total sales of the current year up until today's date, compared to the same period last year. This is helpful if you want to compare sales performance across multiple years.</t>
+          <t>This calculation is used to calculate the year over year sales update. It does so by taking the total sales for the current year (which is the first parameter) and calculating the total sales from the same period last year (which is the second parameter).</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>This calculation computes the total sales from the FinancialData table between the dates of January 1st, 2014 and June 31st, 2014. This calculation uses the CALCULATE, SUM, and DATESBETWEEN DAX functions.</t>
+          <t>This calculation sums up the total sales between January 1, 2014 and June 30, 2014 from the FinancialData table. This provides the total sales during the 6 month period of the given year.</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This line of code is changing the format, type, and name of the columns in a table of financial data. For example, the column labeled 'COGS' is being renamed to 'Cost' and the type 'Currency' is being added to the column for 'Profit'. The 'Discounts' and 'Cost' columns are being added together to create an additional column named 'Total Cost' that is also of type 'Currency'. In the end, the table will have changed to the result of '#"Changed Type2"'.</t>
+          <t>This code is taking data from a table and manipulating it into a more usable form. It is changing the names of some columns, adjusting the data type of some columns from text to something else, and adding a new column that adds the numerical values from two other columns.  Finally, it changes the data type of some columns to currency. When it is done, the result is a table that contains the same information as before but arranged in a way that is easier to use.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment6.xlsx
+++ b/EXCEL Output/Assignment6.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation takes the total sales from FinancialData and then totals the sales amounts of the records whose Date fields are within the current month. This result gives the total sales this month.</t>
+          <t>This calculation is used to calculate the total sales for the month to date. It takes the sum of the sales data from the FinancialData table, and then filters the result on the current month to date by using the DATESMTD function on the Date column in the FinancialData table.</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to determine the total sales for the current Quarter To Date (QTD). It takes the sum of the Sales column from a table called FinancialData and uses the DATESQTD function to filter on the Date column from the same table, returning only the records from the current quarter.</t>
+          <t>TOTALQTD(sum(FinancialData[ Sales]), DATESQTD('FinancialData'[Date])) calculation is used to find the total sales over the current quarter of a particular date. It is basically a sum of sales from a FinancialData table in the current quarter of given date.</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to calculate the total year-to-date sales from a given dataset containing sale amounts as well as dates associated with each sale. This calculation will sum all sales up until the current date, allowing for a quick and easy way of easily managing and understanding sales performance for the current year.</t>
+          <t>This calculation is taking the total year-to-date sales from a given financial data set. It is summing up sales for the current year up to today's date in the FinancialData[Date] field using the DATESYTD and TOTALYTD DAX functions.</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation sums the sales from the current month in the FinancialData table and subtracts the sales from the same month in the previous year. This can be useful to compare performance from one month and year to the next.</t>
+          <t>This calculation is finding the sales total for the previous month. It uses CALCULATE and SUM to total up the Sales column in the FinancialData table, and then uses PARALLELPERIOD and DATESMTD to shift the Date column back one month. The result is the total sales</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>This calculation is the sum of all Sales for the current year-to-date (YTD), excluding the previous quarter. It is used to measure current Sales against a comparable (quarterly) past period.</t>
+          <t>This calculation is used to find the total sales up until the end of the previous quarter. It looks up the sales amount in the FinancialData table and applies the DATESYTD and PARALLELPERIOD functions to identify the date of the previous quarter, and then sums up all the sales up</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>This calculation compares the current month's sales MTD to the previous month's sales MTD to determine the percentage change month-over-month. This is a useful metric for understanding how much sales have increased or decreased compared to the same period in the previous month.</t>
+          <t>This calculation is used to compare the total sales this month to the sales in the previous month. By subtracting the sales MTD (month to date) from the previous month, and then dividing by the previous month's sales MTD, you can calculate what percentage change of sales there is from month to month</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to calculate the year over year sales update. It does so by taking the total sales for the current year (which is the first parameter) and calculating the total sales from the same period last year (which is the second parameter).</t>
+          <t>The calculation is summing up the sales from FinancialData during the same period of the previous year. This is calculated by taking the same period last year's data, starting from the beginning of the year, and summing up the sales amount.</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>This calculation sums up the total sales between January 1, 2014 and June 30, 2014 from the FinancialData table. This provides the total sales during the 6 month period of the given year.</t>
+          <t>This calculation sums up the total sales by examining the FinancialData table and finding the sales figures that fall between the dates of January 1, 2014 and June 31, 2014.</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
     <col width="80" customWidth="1" min="8" max="8"/>
@@ -778,7 +778,12 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This code is taking data from a table and manipulating it into a more usable form. It is changing the names of some columns, adjusting the data type of some columns from text to something else, and adding a new column that adds the numerical values from two other columns.  Finally, it changes the data type of some columns to currency. When it is done, the result is a table that contains the same information as before but arranged in a way that is easier to use.</t>
+          <t xml:space="preserve">1. "Table.TransformColumnTypes() changes the data types of the different columns in the FinancialData_Table table."
+2. This sentence means that the columns in a table are being renamed from COGS to Cost.
+3. The columns in the table have been changed to the appropriate data types, such as Currency for Profit, Cost, Sales, and Gross Sales, and Date and Integer for Date and Units Sold.
+4. "Added Custom" adds a new column to the table called "Total Cost" with the sum of the "Cost" and "Discounts" columns.
+5. This sentence means that the data type of the column "Total Cost" has been changed to Currency.
+</t>
         </is>
       </c>
     </row>
